--- a/servis/wwwroot/Reports/report_session.xlsx
+++ b/servis/wwwroot/Reports/report_session.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Список сессий</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Киркина</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Смартова</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
@@ -474,6 +480,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>

--- a/servis/wwwroot/Reports/report_session.xlsx
+++ b/servis/wwwroot/Reports/report_session.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Список сессий</t>
   </si>
@@ -75,6 +75,60 @@
   </si>
   <si>
     <t>Смартова</t>
+  </si>
+  <si>
+    <t>12.05.2023</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Терешков</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Яшин</t>
+  </si>
+  <si>
+    <t>01.06.2023</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Миронов</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Силезнева</t>
+  </si>
+  <si>
+    <t>03.06.2023</t>
+  </si>
+  <si>
+    <t>Тая</t>
+  </si>
+  <si>
+    <t>Гурская</t>
+  </si>
+  <si>
+    <t>04.06.2023</t>
+  </si>
+  <si>
+    <t>28.05.2023</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Перцов</t>
   </si>
 </sst>
 </file>
@@ -397,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
@@ -506,6 +560,162 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:L1"/>
